--- a/examples/SAM/effects/MIDI Mappings Effects.xlsx
+++ b/examples/SAM/effects/MIDI Mappings Effects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10060" yWindow="2880" windowWidth="25600" windowHeight="18700" tabRatio="500"/>
+    <workbookView xWindow="21300" yWindow="1120" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="By Module" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
   <si>
     <t>Function</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Echo</t>
   </si>
   <si>
-    <t>enable</t>
-  </si>
-  <si>
     <t>Delay Portamento</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>Other CCs  12-13, 16-19,  75-79, 80-83</t>
   </si>
   <si>
-    <t>Union of available CCs.  3, 9, 12-63, 75-83, 85-95</t>
-  </si>
-  <si>
     <t>Module</t>
   </si>
   <si>
@@ -128,10 +122,28 @@
     <t>knob</t>
   </si>
   <si>
-    <t>switch</t>
-  </si>
-  <si>
     <t>Enable</t>
+  </si>
+  <si>
+    <t>switch (SW-1)</t>
+  </si>
+  <si>
+    <t>switch (SW-2)</t>
+  </si>
+  <si>
+    <t>switch (SW-3)</t>
+  </si>
+  <si>
+    <t>switch (SW-4)</t>
+  </si>
+  <si>
+    <t>knob (HADC-0)</t>
+  </si>
+  <si>
+    <t>knob (HADC-2)</t>
+  </si>
+  <si>
+    <t>knob (HADC-1)</t>
   </si>
 </sst>
 </file>
@@ -192,7 +204,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -331,34 +343,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="135">
+  <cellStyleXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -494,8 +480,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -509,10 +511,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="135">
+  <cellStyles count="151">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -580,6 +580,14 @@
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -647,6 +655,14 @@
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -976,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -987,392 +1003,384 @@
     <col min="1" max="1" width="29.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.5" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="16.33203125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="16" thickBot="1">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="12"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="1:4" ht="16" thickBot="1"/>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="16" thickBot="1">
-      <c r="A5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="4" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="16" thickBot="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="B5" s="7">
+        <v>105</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7">
-        <v>49</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>26</v>
+      <c r="A7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="9">
+        <v>60</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="14">
-        <v>102</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>27</v>
+      <c r="A8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9">
+        <v>61</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B9" s="9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="9">
+        <v>75</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16" thickBot="1">
+      <c r="A11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="11">
+        <v>76</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16" thickBot="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="7">
+        <v>104</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="9">
+        <v>3</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="9">
+        <v>4</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16" thickBot="1">
+      <c r="A16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="11">
+        <v>79</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16" thickBot="1">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="7">
+        <v>103</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="9">
+        <v>55</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="9">
-        <v>51</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="B20" s="9">
+        <v>56</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="9">
+        <v>57</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16" thickBot="1">
+      <c r="A22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="11">
+        <v>58</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16" thickBot="1">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="7">
+        <v>102</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="9">
-        <v>52</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="9">
-        <v>53</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16" thickBot="1">
-      <c r="A13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="11">
-        <v>54</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="7">
-        <v>55</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="14">
-        <v>103</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="9">
-        <v>56</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="9">
-        <v>57</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16" thickBot="1">
-      <c r="A19" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="11">
-        <v>58</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16" thickBot="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="7">
-        <v>105</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="9">
-        <v>60</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="9">
-        <v>61</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="9">
-        <v>62</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B25" s="9">
+        <v>49</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="D25" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="8" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B26" s="9">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="16" thickBot="1">
-      <c r="A27" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="11">
-        <v>76</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16" thickBot="1">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="9">
+        <v>51</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="9">
+        <v>52</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="7">
-        <v>3</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="14">
-        <v>104</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="9">
-        <v>4</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="16" thickBot="1">
-      <c r="A32" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="11">
-        <v>79</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>26</v>
+      <c r="A29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="9">
+        <v>53</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16" thickBot="1">
+      <c r="A30" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="11">
+        <v>54</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
